--- a/4constructor.xlsx
+++ b/4constructor.xlsx
@@ -392,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +403,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -436,16 +442,16 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -870,7 +876,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>11335838427</v>
       </c>
@@ -942,7 +948,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>1337870421</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>1337870421</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>1098877509</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>1098877509</v>
       </c>
@@ -1222,7 +1228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>1016256222</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>77</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>24146495981</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>85060261073</v>
       </c>
@@ -1434,7 +1440,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>1588199813</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4">
         <v>232058000000</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>111</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>1309825465</v>
       </c>
